--- a/biology/Médecine/Diarrhée/Diarrhée.xlsx
+++ b/biology/Médecine/Diarrhée/Diarrhée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diarrh%C3%A9e</t>
+          <t>Diarrhée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La diarrhée est une quantité de selles émises dans un volume plus important que la normale (plus de 300 grammes par jour) et avec une plus grande fréquence (plus de trois selles par jour)[1].
-Les selles sont généralement liquides, mais parfois simplement molles, accompagnées de glaires ou de sang et d'un cortège de symptômes variables dépendant de la cause de la diarrhée. Il est même possible dans certains cas que ce ne soit que de l'eau ou un liquide transparent. Dans les cas extrêmes, comme le choléra, plus de 20 litres de fluide peuvent être perdus par jour[2],[3]. Les diarrhées sont généralement accompagnées de crampes et de douleurs aux intestins qui peuvent rendre le sujet mal à l'aise, ainsi que de frissons et de sueurs froides dans certains cas. Les diarrhées sont la seconde cause de mortalité infantile dans les pays du tiers monde (après les pneumonies), et sont responsables de 18 % des morts d'enfants de moins de 5 ans[4].
+La diarrhée est une quantité de selles émises dans un volume plus important que la normale (plus de 300 grammes par jour) et avec une plus grande fréquence (plus de trois selles par jour).
+Les selles sont généralement liquides, mais parfois simplement molles, accompagnées de glaires ou de sang et d'un cortège de symptômes variables dépendant de la cause de la diarrhée. Il est même possible dans certains cas que ce ne soit que de l'eau ou un liquide transparent. Dans les cas extrêmes, comme le choléra, plus de 20 litres de fluide peuvent être perdus par jour,. Les diarrhées sont généralement accompagnées de crampes et de douleurs aux intestins qui peuvent rendre le sujet mal à l'aise, ainsi que de frissons et de sueurs froides dans certains cas. Les diarrhées sont la seconde cause de mortalité infantile dans les pays du tiers monde (après les pneumonies), et sont responsables de 18 % des morts d'enfants de moins de 5 ans.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diarrh%C3%A9e</t>
+          <t>Diarrhée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Intoxication alimentaire : la diarrhée aiguë est le plus souvent le symptôme d'une infection du système digestif (gastro-entérite) causée par une bactérie, un virus ou un parasite, ou résulte de l'ingestion d'un produit non comestible ou toxique. La cause de plus de 90% de la mortalité par diarrhée est la consommation d'eau contaminée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Intoxication alimentaire : la diarrhée aiguë est le plus souvent le symptôme d'une infection du système digestif (gastro-entérite) causée par une bactérie, un virus ou un parasite, ou résulte de l'ingestion d'un produit non comestible ou toxique. La cause de plus de 90% de la mortalité par diarrhée est la consommation d'eau contaminée.
 Les intolérances alimentaires : lactose dans le lait de vache, sorbitol, gluten, etc.
 L'anxiété, les émotions intenses comme la terreur ou le stress.
 Un effet secondaire de certains médicaments (antibiotiques ou antipsychotiques notamment) : la flore intestinale est bouleversée ou déréglée.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diarrh%C3%A9e</t>
+          <t>Diarrhée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>Risque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre le risque lié à l'affection ayant provoqué la diarrhée, la diarrhée elle-même peut provoquer une déshydratation. Cette déshydratation peut être mortelle, surtout pour le nourrisson, chez qui une perte de poids supérieure à 10 % est une urgence hospitalière. À long terme, ces pertes peuvent entraîner un déséquilibre entre les composants du corps[6].
-Il s'agit d'un vrai problème de santé publique, surtout dans les pays du tiers-monde où les maladies diarrhéiques sont responsables de près d'1,5 million de décès annuels d'enfants de moins de cinq ans en 2006[7].
-Le dérèglement climatique risque d'augmenter ce risque et d'accroître les coûts liés aux traitements de la diarrhée dans les pays tempérés qui se réchauffent et surtout dans les pays en développement. Une revue critique sur l'évaluation des coûts de l’adaptation aux impacts sanitaires du changement climatique a été publiée début 2009[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre le risque lié à l'affection ayant provoqué la diarrhée, la diarrhée elle-même peut provoquer une déshydratation. Cette déshydratation peut être mortelle, surtout pour le nourrisson, chez qui une perte de poids supérieure à 10 % est une urgence hospitalière. À long terme, ces pertes peuvent entraîner un déséquilibre entre les composants du corps.
+Il s'agit d'un vrai problème de santé publique, surtout dans les pays du tiers-monde où les maladies diarrhéiques sont responsables de près d'1,5 million de décès annuels d'enfants de moins de cinq ans en 2006.
+Le dérèglement climatique risque d'augmenter ce risque et d'accroître les coûts liés aux traitements de la diarrhée dans les pays tempérés qui se réchauffent et surtout dans les pays en développement. Une revue critique sur l'évaluation des coûts de l’adaptation aux impacts sanitaires du changement climatique a été publiée début 2009.
 C'est aussi un mode de dissémination des virus et microbes en cause très agressif. Une hygiène drastique est requise : éviter tout contact avec les matières fécales, et éviter tout contact de celles-ci avec de la terre, et surtout avec l'eau courante.
 </t>
         </is>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diarrh%C3%A9e</t>
+          <t>Diarrhée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,13 +603,11 @@
           <t>Mécanismes de perte d'eau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est au niveau du côlon que les selles sont asséchées. Les phénomènes de réabsorption de l'eau contenue dans les matières ingérées se produisent au niveau des cellules coliques par un phénomène de transport actif de sel et, par osmose, d'eau. Au niveau des cryptes des invaginations de l'épithélium colique, une sécrétion d'eau allant du sang vers le milieu extérieur a lieu. Ces deux phénomènes se compensent chez la personne en bonne santé et permet de maintenir une hydratation convenable des selles, ce qui favorise le transit intestinal et améliore les conditions de circulation des molécules.
-Modèle cellulaire
-Lors d'une infection bactérienne, les cellules immunitaires se déplacent vers les cellules épithéliales de la paroi intestinale et produisent une protéine appelée interleukine 22. Cette cytokine signale aux cellules épithéliales de produire la protéine CLDN2 (en) (claudine 2) qui génère des pores au sein des jonctions serrées de l'épithélium, le rendant donc plus perméable, ce qui favorise la sortie d'eau[9].
-Diarrhée sécrétoire
-La toxine du choléra, en augmentant la concentration intracellulaire en AMP cyclique, provoque l'ouverture d'un canal chlorure apical CFTR, dont les mutations sont par ailleurs responsables de la mucoviscidose. Ce canal étant la voie limitante de sécrétion de chlorure de sodium, et donc d'eau, il s'ensuit une perte d'eau importante vers les selles.
 </t>
         </is>
       </c>
@@ -604,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diarrh%C3%A9e</t>
+          <t>Diarrhée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +633,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Mécanismes de perte d'eau</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Modèle cellulaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une infection bactérienne, les cellules immunitaires se déplacent vers les cellules épithéliales de la paroi intestinale et produisent une protéine appelée interleukine 22. Cette cytokine signale aux cellules épithéliales de produire la protéine CLDN2 (en) (claudine 2) qui génère des pores au sein des jonctions serrées de l'épithélium, le rendant donc plus perméable, ce qui favorise la sortie d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mécanismes de perte d'eau</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diarrhée sécrétoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La toxine du choléra, en augmentant la concentration intracellulaire en AMP cyclique, provoque l'ouverture d'un canal chlorure apical CFTR, dont les mutations sont par ailleurs responsables de la mucoviscidose. Ce canal étant la voie limitante de sécrétion de chlorure de sodium, et donc d'eau, il s'ensuit une perte d'eau importante vers les selles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fausses diarrhées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La « crise de foie », l'indigestion : un repas avec des mets indigestes pour le sujet, une surconsommation d'eau, de magnésium, d'aliments peut entrainer une diarrhée passagère réactionnelle[citation nécessaire], la surconsommation d'alcool aussi.
 Une surconsommation de certains aliments laxatifs (les pruneaux, le tamarin, la rhubarbe), ou de liquides peut aussi entraîner une diarrhée ponctuelle. Ces aliments riches en fibres, contiennent des dérivés actifs de l'anthraquinone (les glucosides d'anthraquinone). Ces derniers se transforment dans le côlon en sennosides qui augmentent les mouvements péristaltiques du côlon (Voir aussi Glycoside)
@@ -635,33 +725,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Diarrhées aiguës</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gastro-entérites virales (rotavirus (80 % des causes de diarrhées virales[10], 40 % des diarrhées nécessitant une hospitalisation[11]), adénovirus, Caliciviridae, astrovirus, coronavirus, entérovirus),
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gastro-entérites virales (rotavirus (80 % des causes de diarrhées virales, 40 % des diarrhées nécessitant une hospitalisation), adénovirus, Caliciviridae, astrovirus, coronavirus, entérovirus),
 Gastro-entérites bactériennes,
 Toxi-infections alimentaires :
 salmonellose,
@@ -671,31 +763,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Diarrhées chroniques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Diarrhée de durée supérieure à un mois.
 Il est difficile de classifier les différentes causes de diarrhée chronique, d'autant que certaines pathologies relèvent de plusieurs mécanismes.
@@ -713,31 +807,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Exploration</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre l'examen clinique, plusieurs examens peuvent être indiqués en fonction de l'orientation initiale : recueil de selles (coproculture, examen parasitologique des selles), coloscopie, histologie intestinale sur biopsies coliques (mise en évidence du false brush border signant la présence de Brachyspira), prélèvement sanguin.
 Les explorations dépendent également de la durée de la diarrhée, elles seront donc différentes qu'elle soit aiguë ou chronique.
@@ -745,38 +841,42 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diarrhée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diarrh%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Mesures hygiéno-diététiques
-Traitement médicamenteux
-Le traitement par médicament vise dans un premier temps la réduction de l'intensité de la diarrhée, puis la réhydratation (notamment chez l'enfant et les personnes âgées). Il peut s'accompagner de traitements visant la cause de la diarrhée, par exemple en cas de diarrhées infectieuses.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitement médicamenteux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le traitement par médicament vise dans un premier temps la réduction de l'intensité de la diarrhée, puis la réhydratation (notamment chez l'enfant et les personnes âgées). Il peut s'accompagner de traitements visant la cause de la diarrhée, par exemple en cas de diarrhées infectieuses.
 Les traitements courants sont :
-La réhydratation à l'aide d'une prise d'électrolytes sous forme de solution (soluté de réhydratation orale)[12].
-Des ralentisseurs du transit opioïdes (lopéramide), sauf en cas de diarrhées infectieuses bactériennes[12].
+La réhydratation à l'aide d'une prise d'électrolytes sous forme de solution (soluté de réhydratation orale).
+Des ralentisseurs du transit opioïdes (lopéramide), sauf en cas de diarrhées infectieuses bactériennes.
 Traitement de l'affection causale[réf. souhaitée].
 En dernier recours, dans les cas liés à une infection récidivante, induite par un microbe antibiorésistant, la Bactériothérapie fécale peut être une solution[réf. souhaitée]. Elle se montre très efficace, mais on manque encore de recul pour être certain de ne pas prendre d'autres risques[réf. nécessaire].
 Le charbon de bois non activé et le charbon activé, connus par leurs pouvoirs d'assainissement et d'adsorption de gaz de différentes provenances ainsi que les toxines bactériennes, virales et celles du métabolisme, sont utilisés comme régulateur de transit intestinal pour soigner et la constipation et la diarrhée[réf. nécessaire].</t>
